--- a/biology/Médecine/Service_public_fédéral_Santé_publique,_Sécurité_de_la_chaîne_alimentaire_et_Environnement/Service_public_fédéral_Santé_publique,_Sécurité_de_la_chaîne_alimentaire_et_Environnement.xlsx
+++ b/biology/Médecine/Service_public_fédéral_Santé_publique,_Sécurité_de_la_chaîne_alimentaire_et_Environnement/Service_public_fédéral_Santé_publique,_Sécurité_de_la_chaîne_alimentaire_et_Environnement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Service_public_f%C3%A9d%C3%A9ral_Sant%C3%A9_publique,_S%C3%A9curit%C3%A9_de_la_cha%C3%AEne_alimentaire_et_Environnement</t>
+          <t>Service_public_fédéral_Santé_publique,_Sécurité_de_la_chaîne_alimentaire_et_Environnement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Service public fédéral Santé publique, Sécurité de la Chaîne alimentaire et Environnement est l'un des neuf services publics fédéraux de Belgique.  
 Il a été créé en 2001 lors de la réforme Copernic. Il s'agit d'un des deux départements qui a repris les tâches du ministère des Affaires sociales, de la Santé publique et de l'Environnement. L'autre étant le SPF Sécurité sociale.   
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Service_public_f%C3%A9d%C3%A9ral_Sant%C3%A9_publique,_S%C3%A9curit%C3%A9_de_la_cha%C3%AEne_alimentaire_et_Environnement</t>
+          <t>Service_public_fédéral_Santé_publique,_Sécurité_de_la_chaîne_alimentaire_et_Environnement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Domaines de compétences</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le SPF Santé publique comprend 4 domaines de compétences : 
 la santé
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Service_public_f%C3%A9d%C3%A9ral_Sant%C3%A9_publique,_S%C3%A9curit%C3%A9_de_la_cha%C3%AEne_alimentaire_et_Environnement</t>
+          <t>Service_public_fédéral_Santé_publique,_Sécurité_de_la_chaîne_alimentaire_et_Environnement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Vision</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec l’ambition de protéger et d’améliorer la santé des citoyens, le SPF Santé publique est le promoteur belge du principe « One World, One Health ». La santé et toutes ses composantes se trouvent au centre de ses préoccupations et de ses missions, autant la santé humaine, la santé de la planète, la santé animale et végétale que l’alimentation. 
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Service_public_f%C3%A9d%C3%A9ral_Sant%C3%A9_publique,_S%C3%A9curit%C3%A9_de_la_cha%C3%AEne_alimentaire_et_Environnement</t>
+          <t>Service_public_fédéral_Santé_publique,_Sécurité_de_la_chaîne_alimentaire_et_Environnement</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SPF Santé publique est divisé en cinq directions générales (DG) et deux services : 
 DG Soins de Santé
@@ -604,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Service_public_f%C3%A9d%C3%A9ral_Sant%C3%A9_publique,_S%C3%A9curit%C3%A9_de_la_cha%C3%AEne_alimentaire_et_Environnement</t>
+          <t>Service_public_fédéral_Santé_publique,_Sécurité_de_la_chaîne_alimentaire_et_Environnement</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -622,7 +640,9 @@
           <t>Activités internationales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SPF Santé publique est actif tant à l'intérieur qu'à l'extérieur de l'Europe et coopère avec plusieurs institutions internationales ou en fait partie.   
 </t>
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Service_public_f%C3%A9d%C3%A9ral_Sant%C3%A9_publique,_S%C3%A9curit%C3%A9_de_la_cha%C3%AEne_alimentaire_et_Environnement</t>
+          <t>Service_public_fédéral_Santé_publique,_Sécurité_de_la_chaîne_alimentaire_et_Environnement</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +673,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SPF Santé publique est situé dans le bâtiment Galilée, au centre de Bruxelles:  
 Avenue Galilée 5 bte 2 
